--- a/data/earthworm_data.xlsx
+++ b/data/earthworm_data.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acole\Documents\R_Files\field_course_2023\worms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acole\Documents\R_Files\ees_worms\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903721EA-9A80-4373-AD33-96773BA9A401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B76FDB-57B2-4432-A7D8-416142F02DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{87892140-A3D5-44C9-AB92-4D8CF12ECA6F}"/>
   </bookViews>
   <sheets>
     <sheet name="formatted" sheetId="3" r:id="rId1"/>
     <sheet name="original" sheetId="1" r:id="rId2"/>
-    <sheet name="extra_plots" sheetId="2" r:id="rId3"/>
-    <sheet name="metadata-notes" sheetId="4" r:id="rId4"/>
+    <sheet name="fixed_values" sheetId="5" r:id="rId3"/>
+    <sheet name="extra_plots" sheetId="2" r:id="rId4"/>
+    <sheet name="metadata-notes" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="51">
   <si>
     <t>Date</t>
   </si>
@@ -99,9 +100,6 @@
   </si>
   <si>
     <t>Juveniles</t>
-  </si>
-  <si>
-    <t>Notes</t>
   </si>
   <si>
     <t>Unmowed grassland</t>
@@ -216,7 +214,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,12 +265,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -305,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -336,14 +328,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -663,71 +654,71 @@
   <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Z17" sqref="Z17"/>
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>40</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>41</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>42</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>44</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>45</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>46</v>
-      </c>
-      <c r="T1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -735,7 +726,7 @@
         <v>45175</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -797,7 +788,7 @@
         <v>45175</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -859,7 +850,7 @@
         <v>45175</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -898,7 +889,7 @@
         <v>5.26</v>
       </c>
       <c r="O4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="P4">
         <v>12</v>
@@ -910,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="S4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="T4">
         <v>3</v>
@@ -921,7 +912,7 @@
         <v>45175</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -960,7 +951,7 @@
         <v>5.57</v>
       </c>
       <c r="O5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P5">
         <v>6</v>
@@ -972,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T5">
         <v>2</v>
@@ -983,7 +974,7 @@
         <v>45175</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1045,7 +1036,7 @@
         <v>45175</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1107,7 +1098,7 @@
         <v>45175</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1146,7 +1137,7 @@
         <v>5.67</v>
       </c>
       <c r="O8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P8">
         <v>12</v>
@@ -1158,7 +1149,7 @@
         <v>4</v>
       </c>
       <c r="S8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T8">
         <v>15</v>
@@ -1169,7 +1160,7 @@
         <v>45175</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1231,7 +1222,7 @@
         <v>45175</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1293,7 +1284,7 @@
         <v>45175</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1355,7 +1346,7 @@
         <v>45175</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1394,7 +1385,7 @@
         <v>5.34</v>
       </c>
       <c r="O12">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P12">
         <v>4</v>
@@ -1417,7 +1408,7 @@
         <v>45175</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1479,7 +1470,7 @@
         <v>45175</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1541,7 +1532,7 @@
         <v>45175</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1603,7 +1594,7 @@
         <v>45175</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1665,7 +1656,7 @@
         <v>45176</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1716,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T17">
         <v>12</v>
@@ -1727,7 +1718,7 @@
         <v>45176</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -1789,7 +1780,7 @@
         <v>45176</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -1851,7 +1842,7 @@
         <v>45176</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -1913,7 +1904,7 @@
         <v>45176</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -1975,7 +1966,7 @@
         <v>45176</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -2037,7 +2028,7 @@
         <v>45176</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -2099,7 +2090,7 @@
         <v>45176</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24">
         <v>8</v>
@@ -2161,7 +2152,7 @@
         <v>45176</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25">
         <v>9</v>
@@ -2200,7 +2191,7 @@
         <v>5.19</v>
       </c>
       <c r="O25">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P25">
         <v>2</v>
@@ -2212,7 +2203,7 @@
         <v>6</v>
       </c>
       <c r="S25">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T25">
         <v>2</v>
@@ -2223,7 +2214,7 @@
         <v>45176</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26">
         <v>10</v>
@@ -2285,7 +2276,7 @@
         <v>45176</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27">
         <v>11</v>
@@ -2347,7 +2338,7 @@
         <v>45176</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28">
         <v>12</v>
@@ -2409,7 +2400,7 @@
         <v>45176</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29">
         <v>13</v>
@@ -2471,7 +2462,7 @@
         <v>45176</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30">
         <v>14</v>
@@ -2533,7 +2524,7 @@
         <v>45176</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31">
         <v>15</v>
@@ -2572,7 +2563,7 @@
         <v>5.0199999999999996</v>
       </c>
       <c r="O31">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P31">
         <v>6</v>
@@ -2584,7 +2575,7 @@
         <v>1</v>
       </c>
       <c r="S31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T31">
         <v>2</v>
@@ -2595,7 +2586,7 @@
         <v>45173</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2657,7 +2648,7 @@
         <v>45173</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -2719,7 +2710,7 @@
         <v>45173</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -2781,7 +2772,7 @@
         <v>45173</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -2843,7 +2834,7 @@
         <v>45173</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -2905,7 +2896,7 @@
         <v>45173</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -2972,7 +2963,7 @@
   <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A37"/>
+      <selection activeCell="Y19" sqref="Y19:Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3039,23 +3030,23 @@
       <c r="O1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="S1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="T1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="24" t="s">
-        <v>20</v>
+      <c r="U1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
@@ -3063,7 +3054,7 @@
         <v>45175</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3106,19 +3097,19 @@
       <c r="O2" s="23">
         <v>20</v>
       </c>
-      <c r="P2" s="28">
+      <c r="P2" s="27">
         <v>11</v>
       </c>
-      <c r="Q2" s="28">
+      <c r="Q2" s="27">
         <v>3</v>
       </c>
-      <c r="R2" s="28">
-        <v>0</v>
-      </c>
-      <c r="S2" s="28">
+      <c r="R2" s="27">
+        <v>0</v>
+      </c>
+      <c r="S2" s="27">
         <v>14</v>
       </c>
-      <c r="T2" s="28">
+      <c r="T2" s="27">
         <v>6</v>
       </c>
     </row>
@@ -3127,7 +3118,7 @@
         <v>45175</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -3170,19 +3161,19 @@
       <c r="O3" s="23">
         <v>13</v>
       </c>
-      <c r="P3" s="28">
+      <c r="P3" s="27">
         <v>9</v>
       </c>
-      <c r="Q3" s="28">
+      <c r="Q3" s="27">
         <v>3</v>
       </c>
-      <c r="R3" s="28">
-        <v>0</v>
-      </c>
-      <c r="S3" s="28">
+      <c r="R3" s="27">
+        <v>0</v>
+      </c>
+      <c r="S3" s="27">
         <v>12</v>
       </c>
-      <c r="T3" s="28">
+      <c r="T3" s="27">
         <v>1</v>
       </c>
     </row>
@@ -3191,7 +3182,7 @@
         <v>45175</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -3234,19 +3225,19 @@
       <c r="O4" s="23">
         <v>14</v>
       </c>
-      <c r="P4" s="28">
+      <c r="P4" s="27">
         <v>12</v>
       </c>
-      <c r="Q4" s="28">
+      <c r="Q4" s="27">
         <v>1</v>
       </c>
-      <c r="R4" s="28">
+      <c r="R4" s="27">
         <v>1</v>
       </c>
-      <c r="S4" s="28">
+      <c r="S4" s="27">
         <v>11</v>
       </c>
-      <c r="T4" s="28">
+      <c r="T4" s="27">
         <v>3</v>
       </c>
     </row>
@@ -3255,7 +3246,7 @@
         <v>45175</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -3298,19 +3289,19 @@
       <c r="O5" s="23">
         <v>14</v>
       </c>
-      <c r="P5" s="28">
+      <c r="P5" s="27">
         <v>6</v>
       </c>
-      <c r="Q5" s="28">
+      <c r="Q5" s="27">
         <v>5</v>
       </c>
-      <c r="R5" s="28">
-        <v>0</v>
-      </c>
-      <c r="S5" s="28">
+      <c r="R5" s="27">
+        <v>0</v>
+      </c>
+      <c r="S5" s="27">
         <v>12</v>
       </c>
-      <c r="T5" s="28">
+      <c r="T5" s="27">
         <v>2</v>
       </c>
     </row>
@@ -3319,7 +3310,7 @@
         <v>45175</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -3362,19 +3353,19 @@
       <c r="O6" s="23">
         <v>19</v>
       </c>
-      <c r="P6" s="28">
+      <c r="P6" s="27">
         <v>8</v>
       </c>
-      <c r="Q6" s="28">
+      <c r="Q6" s="27">
         <v>3</v>
       </c>
-      <c r="R6" s="28">
+      <c r="R6" s="27">
         <v>1</v>
       </c>
-      <c r="S6" s="28">
+      <c r="S6" s="27">
         <v>12</v>
       </c>
-      <c r="T6" s="28">
+      <c r="T6" s="27">
         <v>7</v>
       </c>
     </row>
@@ -3383,7 +3374,7 @@
         <v>45175</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -3426,19 +3417,19 @@
       <c r="O7" s="23">
         <v>21</v>
       </c>
-      <c r="P7" s="28">
+      <c r="P7" s="27">
         <v>8</v>
       </c>
-      <c r="Q7" s="28">
+      <c r="Q7" s="27">
         <v>3</v>
       </c>
-      <c r="R7" s="28">
+      <c r="R7" s="27">
         <v>2</v>
       </c>
-      <c r="S7" s="28">
+      <c r="S7" s="27">
         <v>13</v>
       </c>
-      <c r="T7" s="28">
+      <c r="T7" s="27">
         <v>8</v>
       </c>
     </row>
@@ -3447,7 +3438,7 @@
         <v>45175</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -3490,19 +3481,19 @@
       <c r="O8" s="23">
         <v>36</v>
       </c>
-      <c r="P8" s="28">
+      <c r="P8" s="27">
         <v>12</v>
       </c>
-      <c r="Q8" s="28">
+      <c r="Q8" s="27">
         <v>6</v>
       </c>
-      <c r="R8" s="28">
+      <c r="R8" s="27">
         <v>4</v>
       </c>
-      <c r="S8" s="28">
+      <c r="S8" s="27">
         <v>21</v>
       </c>
-      <c r="T8" s="28">
+      <c r="T8" s="27">
         <v>15</v>
       </c>
     </row>
@@ -3511,7 +3502,7 @@
         <v>45175</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -3554,19 +3545,19 @@
       <c r="O9" s="23">
         <v>9</v>
       </c>
-      <c r="P9" s="28">
+      <c r="P9" s="27">
         <v>1</v>
       </c>
-      <c r="Q9" s="28">
+      <c r="Q9" s="27">
         <v>2</v>
       </c>
-      <c r="R9" s="28">
-        <v>0</v>
-      </c>
-      <c r="S9" s="28">
+      <c r="R9" s="27">
+        <v>0</v>
+      </c>
+      <c r="S9" s="27">
         <v>3</v>
       </c>
-      <c r="T9" s="28">
+      <c r="T9" s="27">
         <v>6</v>
       </c>
     </row>
@@ -3575,7 +3566,7 @@
         <v>45175</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -3618,19 +3609,19 @@
       <c r="O10" s="23">
         <v>50</v>
       </c>
-      <c r="P10" s="28">
+      <c r="P10" s="27">
         <v>21</v>
       </c>
-      <c r="Q10" s="28">
+      <c r="Q10" s="27">
         <v>7</v>
       </c>
-      <c r="R10" s="28">
+      <c r="R10" s="27">
         <v>3</v>
       </c>
-      <c r="S10" s="28">
+      <c r="S10" s="27">
         <v>31</v>
       </c>
-      <c r="T10" s="28">
+      <c r="T10" s="27">
         <v>19</v>
       </c>
     </row>
@@ -3639,7 +3630,7 @@
         <v>45175</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -3682,19 +3673,19 @@
       <c r="O11" s="23">
         <v>6</v>
       </c>
-      <c r="P11" s="28">
+      <c r="P11" s="27">
         <v>3</v>
       </c>
-      <c r="Q11" s="28">
+      <c r="Q11" s="27">
         <v>1</v>
       </c>
-      <c r="R11" s="28">
-        <v>0</v>
-      </c>
-      <c r="S11" s="28">
+      <c r="R11" s="27">
+        <v>0</v>
+      </c>
+      <c r="S11" s="27">
         <v>4</v>
       </c>
-      <c r="T11" s="28">
+      <c r="T11" s="27">
         <v>2</v>
       </c>
     </row>
@@ -3703,7 +3694,7 @@
         <v>45175</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -3746,19 +3737,19 @@
       <c r="O12" s="23">
         <v>19</v>
       </c>
-      <c r="P12" s="28">
+      <c r="P12" s="27">
         <v>4</v>
       </c>
-      <c r="Q12" s="28">
+      <c r="Q12" s="27">
         <v>1</v>
       </c>
-      <c r="R12" s="28">
-        <v>0</v>
-      </c>
-      <c r="S12" s="28">
+      <c r="R12" s="27">
+        <v>0</v>
+      </c>
+      <c r="S12" s="27">
         <v>5</v>
       </c>
-      <c r="T12" s="28">
+      <c r="T12" s="27">
         <v>19</v>
       </c>
     </row>
@@ -3767,7 +3758,7 @@
         <v>45175</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -3810,23 +3801,23 @@
       <c r="O13" s="23">
         <v>17</v>
       </c>
-      <c r="P13" s="29">
+      <c r="P13" s="28">
         <v>2</v>
       </c>
-      <c r="Q13" s="29">
+      <c r="Q13" s="28">
         <v>3</v>
       </c>
-      <c r="R13" s="29">
-        <v>0</v>
-      </c>
-      <c r="S13" s="29">
+      <c r="R13" s="28">
+        <v>0</v>
+      </c>
+      <c r="S13" s="28">
         <v>5</v>
       </c>
-      <c r="T13" s="29">
+      <c r="T13" s="28">
         <v>12</v>
       </c>
       <c r="U13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
@@ -3834,7 +3825,7 @@
         <v>45175</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -3877,19 +3868,19 @@
       <c r="O14" s="23">
         <v>27</v>
       </c>
-      <c r="P14" s="29">
+      <c r="P14" s="28">
         <v>2</v>
       </c>
-      <c r="Q14" s="29">
+      <c r="Q14" s="28">
         <v>2</v>
       </c>
-      <c r="R14" s="29">
-        <v>0</v>
-      </c>
-      <c r="S14" s="29">
+      <c r="R14" s="28">
+        <v>0</v>
+      </c>
+      <c r="S14" s="28">
         <v>4</v>
       </c>
-      <c r="T14" s="29">
+      <c r="T14" s="28">
         <v>23</v>
       </c>
     </row>
@@ -3898,7 +3889,7 @@
         <v>45175</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -3941,19 +3932,19 @@
       <c r="O15" s="23">
         <v>15</v>
       </c>
-      <c r="P15" s="29">
+      <c r="P15" s="28">
         <v>2</v>
       </c>
-      <c r="Q15" s="29">
+      <c r="Q15" s="28">
         <v>1</v>
       </c>
-      <c r="R15" s="29">
-        <v>0</v>
-      </c>
-      <c r="S15" s="29">
+      <c r="R15" s="28">
+        <v>0</v>
+      </c>
+      <c r="S15" s="28">
         <v>3</v>
       </c>
-      <c r="T15" s="29">
+      <c r="T15" s="28">
         <v>12</v>
       </c>
     </row>
@@ -3962,7 +3953,7 @@
         <v>45175</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -4005,19 +3996,19 @@
       <c r="O16" s="23">
         <v>22</v>
       </c>
-      <c r="P16" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="29">
+      <c r="P16" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="28">
         <v>5</v>
       </c>
-      <c r="R16" s="29">
-        <v>0</v>
-      </c>
-      <c r="S16" s="29">
+      <c r="R16" s="28">
+        <v>0</v>
+      </c>
+      <c r="S16" s="28">
         <v>5</v>
       </c>
-      <c r="T16" s="29">
+      <c r="T16" s="28">
         <v>17</v>
       </c>
     </row>
@@ -4026,7 +4017,7 @@
         <v>45176</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -4069,19 +4060,19 @@
       <c r="O17" s="23">
         <v>23</v>
       </c>
-      <c r="P17" s="28">
+      <c r="P17" s="27">
         <v>7</v>
       </c>
-      <c r="Q17" s="28">
+      <c r="Q17" s="27">
         <v>4</v>
       </c>
-      <c r="R17" s="28">
-        <v>0</v>
-      </c>
-      <c r="S17" s="28">
+      <c r="R17" s="27">
+        <v>0</v>
+      </c>
+      <c r="S17" s="27">
         <v>10</v>
       </c>
-      <c r="T17" s="28">
+      <c r="T17" s="27">
         <v>12</v>
       </c>
     </row>
@@ -4090,7 +4081,7 @@
         <v>45176</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -4133,19 +4124,19 @@
       <c r="O18" s="23">
         <v>36</v>
       </c>
-      <c r="P18" s="29">
+      <c r="P18" s="28">
         <v>20</v>
       </c>
-      <c r="Q18" s="29">
+      <c r="Q18" s="28">
         <v>5</v>
       </c>
-      <c r="R18" s="29">
+      <c r="R18" s="28">
         <v>1</v>
       </c>
-      <c r="S18" s="29">
+      <c r="S18" s="28">
         <v>26</v>
       </c>
-      <c r="T18" s="29">
+      <c r="T18" s="28">
         <v>10</v>
       </c>
     </row>
@@ -4154,7 +4145,7 @@
         <v>45176</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -4197,19 +4188,19 @@
       <c r="O19" s="23">
         <v>4</v>
       </c>
-      <c r="P19" s="29">
+      <c r="P19" s="28">
         <v>1</v>
       </c>
-      <c r="Q19" s="29">
-        <v>0</v>
-      </c>
-      <c r="R19" s="29">
-        <v>0</v>
-      </c>
-      <c r="S19" s="29">
+      <c r="Q19" s="28">
+        <v>0</v>
+      </c>
+      <c r="R19" s="28">
+        <v>0</v>
+      </c>
+      <c r="S19" s="28">
         <v>1</v>
       </c>
-      <c r="T19" s="29">
+      <c r="T19" s="28">
         <v>3</v>
       </c>
     </row>
@@ -4218,7 +4209,7 @@
         <v>45176</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -4261,19 +4252,19 @@
       <c r="O20" s="23">
         <v>10</v>
       </c>
-      <c r="P20" s="29">
+      <c r="P20" s="28">
         <v>8</v>
       </c>
-      <c r="Q20" s="29">
-        <v>0</v>
-      </c>
-      <c r="R20" s="29">
+      <c r="Q20" s="28">
+        <v>0</v>
+      </c>
+      <c r="R20" s="28">
         <v>1</v>
       </c>
-      <c r="S20" s="29">
+      <c r="S20" s="28">
         <v>9</v>
       </c>
-      <c r="T20" s="29">
+      <c r="T20" s="28">
         <v>1</v>
       </c>
     </row>
@@ -4282,7 +4273,7 @@
         <v>45176</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -4325,19 +4316,19 @@
       <c r="O21" s="23">
         <v>9</v>
       </c>
-      <c r="P21" s="29">
+      <c r="P21" s="28">
         <v>4</v>
       </c>
-      <c r="Q21" s="29">
-        <v>0</v>
-      </c>
-      <c r="R21" s="29">
-        <v>0</v>
-      </c>
-      <c r="S21" s="29">
+      <c r="Q21" s="28">
+        <v>0</v>
+      </c>
+      <c r="R21" s="28">
+        <v>0</v>
+      </c>
+      <c r="S21" s="28">
         <v>4</v>
       </c>
-      <c r="T21" s="29">
+      <c r="T21" s="28">
         <v>5</v>
       </c>
     </row>
@@ -4346,7 +4337,7 @@
         <v>45176</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -4389,19 +4380,19 @@
       <c r="O22" s="23">
         <v>6</v>
       </c>
-      <c r="P22" s="29">
+      <c r="P22" s="28">
         <v>1</v>
       </c>
-      <c r="Q22" s="29">
-        <v>0</v>
-      </c>
-      <c r="R22" s="29">
+      <c r="Q22" s="28">
+        <v>0</v>
+      </c>
+      <c r="R22" s="28">
         <v>2</v>
       </c>
-      <c r="S22" s="29">
+      <c r="S22" s="28">
         <v>3</v>
       </c>
-      <c r="T22" s="29">
+      <c r="T22" s="28">
         <v>3</v>
       </c>
     </row>
@@ -4410,7 +4401,7 @@
         <v>45176</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -4453,23 +4444,23 @@
       <c r="O23" s="23">
         <v>23</v>
       </c>
-      <c r="P23" s="29">
+      <c r="P23" s="28">
         <v>9</v>
       </c>
-      <c r="Q23" s="29">
+      <c r="Q23" s="28">
         <v>1</v>
       </c>
-      <c r="R23" s="29">
+      <c r="R23" s="28">
         <v>2</v>
       </c>
-      <c r="S23" s="29">
+      <c r="S23" s="28">
         <v>12</v>
       </c>
-      <c r="T23" s="29">
+      <c r="T23" s="28">
         <v>11</v>
       </c>
       <c r="U23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.35">
@@ -4477,7 +4468,7 @@
         <v>45176</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24">
         <v>8</v>
@@ -4520,19 +4511,19 @@
       <c r="O24" s="23">
         <v>18</v>
       </c>
-      <c r="P24" s="28">
+      <c r="P24" s="27">
         <v>9</v>
       </c>
-      <c r="Q24" s="28">
+      <c r="Q24" s="27">
         <v>1</v>
       </c>
-      <c r="R24" s="28">
+      <c r="R24" s="27">
         <v>2</v>
       </c>
-      <c r="S24" s="28">
+      <c r="S24" s="27">
         <v>12</v>
       </c>
-      <c r="T24" s="28">
+      <c r="T24" s="27">
         <v>6</v>
       </c>
     </row>
@@ -4541,7 +4532,7 @@
         <v>45176</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25">
         <v>9</v>
@@ -4584,19 +4575,19 @@
       <c r="O25" s="23">
         <v>11</v>
       </c>
-      <c r="P25" s="28">
+      <c r="P25" s="27">
         <v>2</v>
       </c>
-      <c r="Q25" s="28">
+      <c r="Q25" s="27">
         <v>2</v>
       </c>
-      <c r="R25" s="28">
+      <c r="R25" s="27">
         <v>6</v>
       </c>
-      <c r="S25" s="28">
+      <c r="S25" s="27">
         <v>9</v>
       </c>
-      <c r="T25" s="28">
+      <c r="T25" s="27">
         <v>2</v>
       </c>
     </row>
@@ -4605,7 +4596,7 @@
         <v>45176</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26">
         <v>10</v>
@@ -4648,19 +4639,19 @@
       <c r="O26" s="23">
         <v>23</v>
       </c>
-      <c r="P26" s="28">
+      <c r="P26" s="27">
         <v>11</v>
       </c>
-      <c r="Q26" s="28">
+      <c r="Q26" s="27">
         <v>2</v>
       </c>
-      <c r="R26" s="28">
+      <c r="R26" s="27">
         <v>1</v>
       </c>
-      <c r="S26" s="28">
+      <c r="S26" s="27">
         <v>14</v>
       </c>
-      <c r="T26" s="28">
+      <c r="T26" s="27">
         <v>9</v>
       </c>
     </row>
@@ -4669,7 +4660,7 @@
         <v>45176</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27">
         <v>11</v>
@@ -4712,19 +4703,19 @@
       <c r="O27" s="23">
         <v>15</v>
       </c>
-      <c r="P27" s="28">
+      <c r="P27" s="27">
         <v>3</v>
       </c>
-      <c r="Q27" s="28">
+      <c r="Q27" s="27">
         <v>2</v>
       </c>
-      <c r="R27" s="28">
-        <v>0</v>
-      </c>
-      <c r="S27" s="28">
+      <c r="R27" s="27">
+        <v>0</v>
+      </c>
+      <c r="S27" s="27">
         <v>5</v>
       </c>
-      <c r="T27" s="28">
+      <c r="T27" s="27">
         <v>10</v>
       </c>
     </row>
@@ -4733,7 +4724,7 @@
         <v>45176</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28">
         <v>12</v>
@@ -4776,19 +4767,19 @@
       <c r="O28" s="23">
         <v>24</v>
       </c>
-      <c r="P28" s="28">
+      <c r="P28" s="27">
         <v>4</v>
       </c>
-      <c r="Q28" s="28">
+      <c r="Q28" s="27">
         <v>2</v>
       </c>
-      <c r="R28" s="28">
-        <v>0</v>
-      </c>
-      <c r="S28" s="28">
+      <c r="R28" s="27">
+        <v>0</v>
+      </c>
+      <c r="S28" s="27">
         <v>6</v>
       </c>
-      <c r="T28" s="28">
+      <c r="T28" s="27">
         <v>18</v>
       </c>
     </row>
@@ -4797,7 +4788,7 @@
         <v>45176</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29">
         <v>13</v>
@@ -4840,19 +4831,19 @@
       <c r="O29" s="23">
         <v>14</v>
       </c>
-      <c r="P29" s="28">
+      <c r="P29" s="27">
         <v>5</v>
       </c>
-      <c r="Q29" s="28">
+      <c r="Q29" s="27">
         <v>1</v>
       </c>
-      <c r="R29" s="28">
+      <c r="R29" s="27">
         <v>1</v>
       </c>
-      <c r="S29" s="28">
+      <c r="S29" s="27">
         <v>7</v>
       </c>
-      <c r="T29" s="28">
+      <c r="T29" s="27">
         <v>7</v>
       </c>
     </row>
@@ -4861,7 +4852,7 @@
         <v>45176</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C30">
         <v>14</v>
@@ -4904,19 +4895,19 @@
       <c r="O30" s="23">
         <v>10</v>
       </c>
-      <c r="P30" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="28">
-        <v>0</v>
-      </c>
-      <c r="R30" s="28">
+      <c r="P30" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="27">
+        <v>0</v>
+      </c>
+      <c r="R30" s="27">
         <v>2</v>
       </c>
-      <c r="S30" s="28">
+      <c r="S30" s="27">
         <v>2</v>
       </c>
-      <c r="T30" s="28">
+      <c r="T30" s="27">
         <v>8</v>
       </c>
     </row>
@@ -4925,7 +4916,7 @@
         <v>45176</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C31">
         <v>15</v>
@@ -4968,19 +4959,19 @@
       <c r="O31" s="23">
         <v>11</v>
       </c>
-      <c r="P31" s="28">
+      <c r="P31" s="27">
         <v>6</v>
       </c>
-      <c r="Q31" s="28">
+      <c r="Q31" s="27">
         <v>1</v>
       </c>
-      <c r="R31" s="28">
+      <c r="R31" s="27">
         <v>1</v>
       </c>
-      <c r="S31" s="28">
+      <c r="S31" s="27">
         <v>9</v>
       </c>
-      <c r="T31" s="28">
+      <c r="T31" s="27">
         <v>2</v>
       </c>
     </row>
@@ -4989,7 +4980,7 @@
         <v>45173</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32" s="17">
         <v>1</v>
@@ -5053,7 +5044,7 @@
         <v>45173</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C33" s="17">
         <v>2</v>
@@ -5117,7 +5108,7 @@
         <v>45173</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="17">
         <v>3</v>
@@ -5150,7 +5141,7 @@
       <c r="L34" s="21">
         <v>0</v>
       </c>
-      <c r="M34" s="26">
+      <c r="M34" s="25">
         <f t="shared" si="3"/>
         <v>7.8250000000000002</v>
       </c>
@@ -5176,7 +5167,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.35">
@@ -5184,7 +5175,7 @@
         <v>45173</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C35" s="17">
         <v>4</v>
@@ -5248,7 +5239,7 @@
         <v>45173</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C36" s="17">
         <v>5</v>
@@ -5312,7 +5303,7 @@
         <v>45173</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C37" s="17">
         <v>6</v>
@@ -5372,11 +5363,15 @@
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="P38" s="25"/>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="25"/>
-      <c r="S38" s="25"/>
-      <c r="T38" s="25"/>
+      <c r="O38">
+        <f>SUM(O2:O37)</f>
+        <v>539</v>
+      </c>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="24"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5385,6 +5380,2423 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D899626B-F87A-43DC-87D9-3DFEEAC629D2}">
+  <dimension ref="A1:U38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:S37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.26953125" customWidth="1"/>
+    <col min="21" max="21" width="31.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>45175</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2">
+        <v>14.4</v>
+      </c>
+      <c r="F2" s="2">
+        <v>14.1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>14.7</v>
+      </c>
+      <c r="H2" s="3">
+        <f>SUM(D2:G2)/4</f>
+        <v>14.3</v>
+      </c>
+      <c r="I2" s="5">
+        <v>6.8</v>
+      </c>
+      <c r="J2" s="5">
+        <v>7</v>
+      </c>
+      <c r="K2" s="5">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="L2" s="5">
+        <v>6.6</v>
+      </c>
+      <c r="M2" s="6">
+        <f>SUM(I2:L2)/4</f>
+        <v>7.65</v>
+      </c>
+      <c r="N2" s="15">
+        <v>5.44</v>
+      </c>
+      <c r="O2">
+        <v>20</v>
+      </c>
+      <c r="P2" s="27">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="27">
+        <v>3</v>
+      </c>
+      <c r="R2" s="27">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>14</v>
+      </c>
+      <c r="T2" s="27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>45175</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>14.7</v>
+      </c>
+      <c r="G3" s="2">
+        <v>14.9</v>
+      </c>
+      <c r="H3" s="3">
+        <f>SUM(D3:G3)/4</f>
+        <v>14.65</v>
+      </c>
+      <c r="I3" s="5">
+        <v>11.6</v>
+      </c>
+      <c r="J3" s="5">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="K3" s="5">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L3" s="5">
+        <v>7.6</v>
+      </c>
+      <c r="M3" s="6">
+        <f t="shared" ref="M3:M37" si="0">SUM(I3:L3)/4</f>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="N3" s="15">
+        <v>5.54</v>
+      </c>
+      <c r="O3">
+        <v>13</v>
+      </c>
+      <c r="P3" s="27">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="27">
+        <v>3</v>
+      </c>
+      <c r="R3" s="27">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>12</v>
+      </c>
+      <c r="T3" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>45175</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>14.9</v>
+      </c>
+      <c r="E4" s="2">
+        <v>14.8</v>
+      </c>
+      <c r="F4" s="2">
+        <v>14.8</v>
+      </c>
+      <c r="G4" s="2">
+        <v>15.1</v>
+      </c>
+      <c r="H4" s="3">
+        <f>SUM(D4:G4)/4</f>
+        <v>14.9</v>
+      </c>
+      <c r="I4" s="5">
+        <v>5</v>
+      </c>
+      <c r="J4" s="5">
+        <v>10.9</v>
+      </c>
+      <c r="K4" s="5">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="L4" s="5">
+        <v>14.5</v>
+      </c>
+      <c r="M4" s="6">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="N4" s="15">
+        <v>5.26</v>
+      </c>
+      <c r="O4">
+        <v>17</v>
+      </c>
+      <c r="P4" s="27">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="27">
+        <v>1</v>
+      </c>
+      <c r="R4" s="27">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>14</v>
+      </c>
+      <c r="T4" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>45175</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>14.3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>14.2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2">
+        <v>14.7</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" ref="H5:H37" si="1">SUM(D5:G5)/4</f>
+        <v>14.3</v>
+      </c>
+      <c r="I5" s="5">
+        <v>13.6</v>
+      </c>
+      <c r="J5" s="5">
+        <v>12.2</v>
+      </c>
+      <c r="K5" s="5">
+        <v>5.8</v>
+      </c>
+      <c r="L5" s="5">
+        <v>8.4</v>
+      </c>
+      <c r="M5" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N5" s="15">
+        <v>5.57</v>
+      </c>
+      <c r="O5">
+        <v>13</v>
+      </c>
+      <c r="P5" s="27">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="27">
+        <v>5</v>
+      </c>
+      <c r="R5" s="27">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>11</v>
+      </c>
+      <c r="T5" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>45175</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>15.2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>15.2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>15.8</v>
+      </c>
+      <c r="G6" s="2">
+        <v>15.1</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="1"/>
+        <v>15.325000000000001</v>
+      </c>
+      <c r="I6" s="5">
+        <v>11</v>
+      </c>
+      <c r="J6" s="5">
+        <v>15.6</v>
+      </c>
+      <c r="K6" s="5">
+        <v>9.4</v>
+      </c>
+      <c r="L6" s="5">
+        <v>26.4</v>
+      </c>
+      <c r="M6" s="6">
+        <f t="shared" si="0"/>
+        <v>15.6</v>
+      </c>
+      <c r="N6" s="15">
+        <v>6.13</v>
+      </c>
+      <c r="O6">
+        <v>19</v>
+      </c>
+      <c r="P6" s="27">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="27">
+        <v>3</v>
+      </c>
+      <c r="R6" s="27">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>12</v>
+      </c>
+      <c r="T6" s="27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>45175</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2">
+        <v>14.9</v>
+      </c>
+      <c r="E7" s="2">
+        <v>14.9</v>
+      </c>
+      <c r="F7" s="2">
+        <v>16.2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>15.3</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="1"/>
+        <v>15.324999999999999</v>
+      </c>
+      <c r="I7" s="5">
+        <v>9.6</v>
+      </c>
+      <c r="J7" s="5">
+        <v>13</v>
+      </c>
+      <c r="K7" s="5">
+        <v>5.8</v>
+      </c>
+      <c r="L7" s="5">
+        <v>9</v>
+      </c>
+      <c r="M7" s="6">
+        <f t="shared" si="0"/>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="N7" s="15">
+        <v>5.96</v>
+      </c>
+      <c r="O7">
+        <v>21</v>
+      </c>
+      <c r="P7" s="27">
+        <v>8</v>
+      </c>
+      <c r="Q7" s="27">
+        <v>3</v>
+      </c>
+      <c r="R7" s="27">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>13</v>
+      </c>
+      <c r="T7" s="27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>45175</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>14.3</v>
+      </c>
+      <c r="F8" s="2">
+        <v>14.4</v>
+      </c>
+      <c r="G8" s="2">
+        <v>14</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="1"/>
+        <v>14.3</v>
+      </c>
+      <c r="I8" s="5">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J8" s="5">
+        <v>12.5</v>
+      </c>
+      <c r="K8" s="5">
+        <v>14</v>
+      </c>
+      <c r="L8" s="5">
+        <v>14.2</v>
+      </c>
+      <c r="M8" s="6">
+        <f t="shared" si="0"/>
+        <v>12.375</v>
+      </c>
+      <c r="N8" s="15">
+        <v>5.67</v>
+      </c>
+      <c r="O8">
+        <v>37</v>
+      </c>
+      <c r="P8" s="27">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="27">
+        <v>6</v>
+      </c>
+      <c r="R8" s="27">
+        <v>4</v>
+      </c>
+      <c r="S8">
+        <v>22</v>
+      </c>
+      <c r="T8" s="27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>45175</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F9" s="2">
+        <v>14.9</v>
+      </c>
+      <c r="G9" s="2">
+        <v>15</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="1"/>
+        <v>15.75</v>
+      </c>
+      <c r="I9" s="5">
+        <v>17.5</v>
+      </c>
+      <c r="J9" s="5">
+        <v>9.4</v>
+      </c>
+      <c r="K9" s="5">
+        <v>12.9</v>
+      </c>
+      <c r="L9" s="5">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="M9" s="6">
+        <f t="shared" si="0"/>
+        <v>12.399999999999999</v>
+      </c>
+      <c r="N9" s="15">
+        <v>5.31</v>
+      </c>
+      <c r="O9">
+        <v>9</v>
+      </c>
+      <c r="P9" s="27">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="27">
+        <v>2</v>
+      </c>
+      <c r="R9" s="27">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>3</v>
+      </c>
+      <c r="T9" s="27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>45175</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2">
+        <v>15.7</v>
+      </c>
+      <c r="E10" s="2">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2">
+        <v>14.7</v>
+      </c>
+      <c r="G10" s="2">
+        <v>15</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="1"/>
+        <v>15.1</v>
+      </c>
+      <c r="I10" s="5">
+        <v>7.8</v>
+      </c>
+      <c r="J10" s="5">
+        <v>13.8</v>
+      </c>
+      <c r="K10" s="5">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="L10" s="5">
+        <v>9.9</v>
+      </c>
+      <c r="M10" s="6">
+        <f t="shared" si="0"/>
+        <v>12.6</v>
+      </c>
+      <c r="N10" s="15">
+        <v>5.93</v>
+      </c>
+      <c r="O10">
+        <v>50</v>
+      </c>
+      <c r="P10" s="27">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="27">
+        <v>7</v>
+      </c>
+      <c r="R10" s="27">
+        <v>3</v>
+      </c>
+      <c r="S10">
+        <v>31</v>
+      </c>
+      <c r="T10" s="27">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>45175</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2">
+        <v>15.7</v>
+      </c>
+      <c r="E11" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="F11" s="2">
+        <v>15</v>
+      </c>
+      <c r="G11" s="2">
+        <v>15.3</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="1"/>
+        <v>15.625</v>
+      </c>
+      <c r="I11" s="5">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="J11" s="5">
+        <v>12.8</v>
+      </c>
+      <c r="K11" s="5">
+        <v>13.9</v>
+      </c>
+      <c r="L11" s="5">
+        <v>17.2</v>
+      </c>
+      <c r="M11" s="6">
+        <f t="shared" si="0"/>
+        <v>13.3</v>
+      </c>
+      <c r="N11" s="15">
+        <v>5.84</v>
+      </c>
+      <c r="O11">
+        <v>6</v>
+      </c>
+      <c r="P11" s="27">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="27">
+        <v>1</v>
+      </c>
+      <c r="R11" s="27">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>4</v>
+      </c>
+      <c r="T11" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>45175</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="E12" s="2">
+        <v>14.8</v>
+      </c>
+      <c r="F12" s="2">
+        <v>17.2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="1"/>
+        <v>16.149999999999999</v>
+      </c>
+      <c r="I12" s="5">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J12" s="5">
+        <v>6.2</v>
+      </c>
+      <c r="K12" s="5">
+        <v>12</v>
+      </c>
+      <c r="L12" s="5">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="M12" s="7">
+        <f t="shared" si="0"/>
+        <v>8.9250000000000007</v>
+      </c>
+      <c r="N12" s="15">
+        <v>5.34</v>
+      </c>
+      <c r="O12">
+        <v>24</v>
+      </c>
+      <c r="P12" s="27">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="27">
+        <v>1</v>
+      </c>
+      <c r="R12" s="27">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>5</v>
+      </c>
+      <c r="T12" s="27">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>45175</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2">
+        <v>16</v>
+      </c>
+      <c r="E13" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="F13" s="2">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="G13" s="2">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="1"/>
+        <v>16.05</v>
+      </c>
+      <c r="I13" s="5">
+        <v>13.3</v>
+      </c>
+      <c r="J13" s="5">
+        <v>7.4</v>
+      </c>
+      <c r="K13" s="5">
+        <v>12.4</v>
+      </c>
+      <c r="L13" s="5">
+        <v>7.6</v>
+      </c>
+      <c r="M13" s="7">
+        <f t="shared" si="0"/>
+        <v>10.175000000000001</v>
+      </c>
+      <c r="N13" s="15">
+        <v>5.21</v>
+      </c>
+      <c r="O13">
+        <v>17</v>
+      </c>
+      <c r="P13" s="28">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="28">
+        <v>3</v>
+      </c>
+      <c r="R13" s="28">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>5</v>
+      </c>
+      <c r="T13" s="28">
+        <v>12</v>
+      </c>
+      <c r="U13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>45175</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="E14" s="2">
+        <v>15.9</v>
+      </c>
+      <c r="F14" s="2">
+        <v>15.4</v>
+      </c>
+      <c r="G14" s="2">
+        <v>15.3</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="1"/>
+        <v>15.524999999999999</v>
+      </c>
+      <c r="I14" s="5">
+        <v>11.4</v>
+      </c>
+      <c r="J14" s="13">
+        <v>5.4</v>
+      </c>
+      <c r="K14" s="13">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="L14" s="13">
+        <v>11.8</v>
+      </c>
+      <c r="M14" s="7">
+        <f t="shared" si="0"/>
+        <v>11.5</v>
+      </c>
+      <c r="N14" s="15">
+        <v>5.53</v>
+      </c>
+      <c r="O14">
+        <v>27</v>
+      </c>
+      <c r="P14" s="28">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="28">
+        <v>2</v>
+      </c>
+      <c r="R14" s="28">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>4</v>
+      </c>
+      <c r="T14" s="28">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>45175</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2">
+        <v>15.3</v>
+      </c>
+      <c r="E15" s="2">
+        <v>15.1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>15.4</v>
+      </c>
+      <c r="G15" s="2">
+        <v>15.2</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="1"/>
+        <v>15.25</v>
+      </c>
+      <c r="I15" s="5">
+        <v>9</v>
+      </c>
+      <c r="J15" s="5">
+        <v>7.4</v>
+      </c>
+      <c r="K15" s="5">
+        <v>14.1</v>
+      </c>
+      <c r="L15" s="5">
+        <v>13</v>
+      </c>
+      <c r="M15" s="7">
+        <f t="shared" si="0"/>
+        <v>10.875</v>
+      </c>
+      <c r="N15" s="15">
+        <v>5.36</v>
+      </c>
+      <c r="O15">
+        <v>15</v>
+      </c>
+      <c r="P15" s="28">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="28">
+        <v>1</v>
+      </c>
+      <c r="R15" s="28">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>3</v>
+      </c>
+      <c r="T15" s="28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>45175</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2">
+        <v>16.3</v>
+      </c>
+      <c r="E16" s="2">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="F16" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="G16" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="1"/>
+        <v>16.175000000000001</v>
+      </c>
+      <c r="I16" s="5">
+        <v>15.2</v>
+      </c>
+      <c r="J16" s="5">
+        <v>8.9</v>
+      </c>
+      <c r="K16" s="5">
+        <v>12.4</v>
+      </c>
+      <c r="L16" s="5">
+        <v>14.5</v>
+      </c>
+      <c r="M16" s="7">
+        <f t="shared" si="0"/>
+        <v>12.75</v>
+      </c>
+      <c r="N16" s="15">
+        <v>5.57</v>
+      </c>
+      <c r="O16">
+        <v>22</v>
+      </c>
+      <c r="P16" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="28">
+        <v>5</v>
+      </c>
+      <c r="R16" s="28">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>5</v>
+      </c>
+      <c r="T16" s="28">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>45176</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>15.3</v>
+      </c>
+      <c r="E17" s="2">
+        <v>15.6</v>
+      </c>
+      <c r="F17" s="2">
+        <v>15.3</v>
+      </c>
+      <c r="G17" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="1"/>
+        <v>15.425000000000001</v>
+      </c>
+      <c r="I17" s="5">
+        <v>6.9</v>
+      </c>
+      <c r="J17" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="K17" s="5">
+        <v>10.6</v>
+      </c>
+      <c r="L17" s="5">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="M17" s="6">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="N17" s="15">
+        <v>5.84</v>
+      </c>
+      <c r="O17">
+        <v>23</v>
+      </c>
+      <c r="P17" s="27">
+        <v>7</v>
+      </c>
+      <c r="Q17" s="27">
+        <v>4</v>
+      </c>
+      <c r="R17" s="27">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>11</v>
+      </c>
+      <c r="T17" s="27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>45176</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="E18" s="2">
+        <v>14.4</v>
+      </c>
+      <c r="F18" s="2">
+        <v>14.4</v>
+      </c>
+      <c r="G18" s="2">
+        <v>14.3</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="1"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="I18" s="5">
+        <v>12.1</v>
+      </c>
+      <c r="J18" s="5">
+        <v>9</v>
+      </c>
+      <c r="K18" s="5">
+        <v>10</v>
+      </c>
+      <c r="L18" s="5">
+        <v>13.9</v>
+      </c>
+      <c r="M18" s="6">
+        <f t="shared" si="0"/>
+        <v>11.25</v>
+      </c>
+      <c r="N18" s="15">
+        <v>5.34</v>
+      </c>
+      <c r="O18">
+        <v>36</v>
+      </c>
+      <c r="P18" s="28">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="28">
+        <v>5</v>
+      </c>
+      <c r="R18" s="28">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>26</v>
+      </c>
+      <c r="T18" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>45176</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>14.2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>14.3</v>
+      </c>
+      <c r="F19" s="2">
+        <v>14.8</v>
+      </c>
+      <c r="G19" s="2">
+        <v>14.6</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="1"/>
+        <v>14.475</v>
+      </c>
+      <c r="I19" s="5">
+        <v>13.5</v>
+      </c>
+      <c r="J19" s="13">
+        <v>11.6</v>
+      </c>
+      <c r="K19" s="13">
+        <v>13.4</v>
+      </c>
+      <c r="L19" s="13">
+        <v>10.3</v>
+      </c>
+      <c r="M19" s="6">
+        <f t="shared" si="0"/>
+        <v>12.2</v>
+      </c>
+      <c r="N19" s="15">
+        <v>5.14</v>
+      </c>
+      <c r="O19">
+        <v>4</v>
+      </c>
+      <c r="P19" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="28">
+        <v>0</v>
+      </c>
+      <c r="R19" s="28">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>45176</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2">
+        <v>15</v>
+      </c>
+      <c r="E20" s="2">
+        <v>15.3</v>
+      </c>
+      <c r="F20" s="2">
+        <v>15.2</v>
+      </c>
+      <c r="G20" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="1"/>
+        <v>15.25</v>
+      </c>
+      <c r="I20" s="5">
+        <v>9.6</v>
+      </c>
+      <c r="J20" s="5">
+        <v>11.4</v>
+      </c>
+      <c r="K20" s="5">
+        <v>6.6</v>
+      </c>
+      <c r="L20" s="5">
+        <v>11.5</v>
+      </c>
+      <c r="M20" s="6">
+        <f t="shared" si="0"/>
+        <v>9.7750000000000004</v>
+      </c>
+      <c r="N20" s="15">
+        <v>6.48</v>
+      </c>
+      <c r="O20">
+        <v>10</v>
+      </c>
+      <c r="P20" s="28">
+        <v>8</v>
+      </c>
+      <c r="Q20" s="28">
+        <v>0</v>
+      </c>
+      <c r="R20" s="28">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>9</v>
+      </c>
+      <c r="T20" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>45176</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2">
+        <v>15.2</v>
+      </c>
+      <c r="E21" s="2">
+        <v>15.1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>14.8</v>
+      </c>
+      <c r="G21" s="2">
+        <v>15.1</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="1"/>
+        <v>15.049999999999999</v>
+      </c>
+      <c r="I21" s="5">
+        <v>11.8</v>
+      </c>
+      <c r="J21" s="5">
+        <v>15.9</v>
+      </c>
+      <c r="K21" s="5">
+        <v>10.6</v>
+      </c>
+      <c r="L21" s="5">
+        <v>15.4</v>
+      </c>
+      <c r="M21" s="6">
+        <f t="shared" si="0"/>
+        <v>13.425000000000001</v>
+      </c>
+      <c r="N21" s="15">
+        <v>6.07</v>
+      </c>
+      <c r="O21">
+        <v>9</v>
+      </c>
+      <c r="P21" s="28">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="28">
+        <v>0</v>
+      </c>
+      <c r="R21" s="28">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>4</v>
+      </c>
+      <c r="T21" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>45176</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="E22" s="2">
+        <v>15.2</v>
+      </c>
+      <c r="F22" s="2">
+        <v>15.4</v>
+      </c>
+      <c r="G22" s="2">
+        <v>15.3</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="1"/>
+        <v>15.350000000000001</v>
+      </c>
+      <c r="I22" s="5">
+        <v>7.1</v>
+      </c>
+      <c r="J22" s="5">
+        <v>8.9</v>
+      </c>
+      <c r="K22" s="5">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L22" s="5">
+        <v>5.6</v>
+      </c>
+      <c r="M22" s="6">
+        <f t="shared" si="0"/>
+        <v>7.4749999999999996</v>
+      </c>
+      <c r="N22" s="15">
+        <v>5.08</v>
+      </c>
+      <c r="O22">
+        <v>6</v>
+      </c>
+      <c r="P22" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="28">
+        <v>0</v>
+      </c>
+      <c r="R22" s="28">
+        <v>2</v>
+      </c>
+      <c r="S22">
+        <v>3</v>
+      </c>
+      <c r="T22" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>45176</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23" s="2">
+        <v>15.1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>15.4</v>
+      </c>
+      <c r="F23" s="2">
+        <v>15.2</v>
+      </c>
+      <c r="G23" s="2">
+        <v>15.3</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="1"/>
+        <v>15.25</v>
+      </c>
+      <c r="I23" s="5">
+        <v>9</v>
+      </c>
+      <c r="J23" s="5">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K23" s="5">
+        <v>7</v>
+      </c>
+      <c r="L23" s="5">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M23" s="6">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+      <c r="N23" s="16">
+        <v>5.3</v>
+      </c>
+      <c r="O23">
+        <v>23</v>
+      </c>
+      <c r="P23" s="28">
+        <v>9</v>
+      </c>
+      <c r="Q23" s="28">
+        <v>1</v>
+      </c>
+      <c r="R23" s="28">
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <v>12</v>
+      </c>
+      <c r="T23" s="28">
+        <v>11</v>
+      </c>
+      <c r="U23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>45176</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24" s="2">
+        <v>15.1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>15.1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>14.9</v>
+      </c>
+      <c r="G24" s="2">
+        <v>14.7</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="1"/>
+        <v>14.95</v>
+      </c>
+      <c r="I24" s="5">
+        <v>6.4</v>
+      </c>
+      <c r="J24" s="5">
+        <v>6.3</v>
+      </c>
+      <c r="K24" s="5">
+        <v>8.5</v>
+      </c>
+      <c r="L24" s="5">
+        <v>11.8</v>
+      </c>
+      <c r="M24" s="6">
+        <f t="shared" si="0"/>
+        <v>8.25</v>
+      </c>
+      <c r="N24" s="16">
+        <v>5.25</v>
+      </c>
+      <c r="O24">
+        <v>18</v>
+      </c>
+      <c r="P24" s="27">
+        <v>9</v>
+      </c>
+      <c r="Q24" s="27">
+        <v>1</v>
+      </c>
+      <c r="R24" s="27">
+        <v>2</v>
+      </c>
+      <c r="S24">
+        <v>12</v>
+      </c>
+      <c r="T24" s="27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>45176</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2">
+        <v>15.3</v>
+      </c>
+      <c r="E25" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="F25" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="G25" s="2">
+        <v>15.1</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="1"/>
+        <v>15.35</v>
+      </c>
+      <c r="I25" s="5">
+        <v>17.3</v>
+      </c>
+      <c r="J25" s="5">
+        <v>18.8</v>
+      </c>
+      <c r="K25" s="5">
+        <v>12.9</v>
+      </c>
+      <c r="L25" s="5">
+        <v>22.6</v>
+      </c>
+      <c r="M25" s="6">
+        <f t="shared" si="0"/>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="N25" s="16">
+        <v>5.19</v>
+      </c>
+      <c r="O25">
+        <v>12</v>
+      </c>
+      <c r="P25" s="27">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="27">
+        <v>2</v>
+      </c>
+      <c r="R25" s="27">
+        <v>6</v>
+      </c>
+      <c r="S25">
+        <v>10</v>
+      </c>
+      <c r="T25" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>45176</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26" s="2">
+        <v>15.1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>15.2</v>
+      </c>
+      <c r="F26" s="2">
+        <v>15.3</v>
+      </c>
+      <c r="G26" s="2">
+        <v>15</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="1"/>
+        <v>15.149999999999999</v>
+      </c>
+      <c r="I26" s="5">
+        <v>18.8</v>
+      </c>
+      <c r="J26" s="5">
+        <v>15.8</v>
+      </c>
+      <c r="K26" s="5">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="L26" s="5">
+        <v>18</v>
+      </c>
+      <c r="M26" s="6">
+        <f t="shared" si="0"/>
+        <v>17.25</v>
+      </c>
+      <c r="N26" s="16">
+        <v>5.05</v>
+      </c>
+      <c r="O26">
+        <v>23</v>
+      </c>
+      <c r="P26" s="27">
+        <v>11</v>
+      </c>
+      <c r="Q26" s="27">
+        <v>2</v>
+      </c>
+      <c r="R26" s="27">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>14</v>
+      </c>
+      <c r="T26" s="27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>45176</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27">
+        <v>11</v>
+      </c>
+      <c r="D27" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="E27" s="2">
+        <v>17.3</v>
+      </c>
+      <c r="F27" s="2">
+        <v>17.2</v>
+      </c>
+      <c r="G27" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" si="1"/>
+        <v>16.95</v>
+      </c>
+      <c r="I27" s="5">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="J27" s="5">
+        <v>19.2</v>
+      </c>
+      <c r="K27" s="5">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="L27" s="5">
+        <v>9</v>
+      </c>
+      <c r="M27" s="6">
+        <f t="shared" si="0"/>
+        <v>15.799999999999999</v>
+      </c>
+      <c r="N27" s="16">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="O27">
+        <v>15</v>
+      </c>
+      <c r="P27" s="27">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="27">
+        <v>2</v>
+      </c>
+      <c r="R27" s="27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>5</v>
+      </c>
+      <c r="T27" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>45176</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28">
+        <v>12</v>
+      </c>
+      <c r="D28" s="2">
+        <v>16</v>
+      </c>
+      <c r="E28" s="2">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="F28" s="2">
+        <v>15.8</v>
+      </c>
+      <c r="G28" s="2">
+        <v>15.9</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" si="1"/>
+        <v>15.950000000000001</v>
+      </c>
+      <c r="I28" s="5">
+        <v>16.8</v>
+      </c>
+      <c r="J28" s="5">
+        <v>17.2</v>
+      </c>
+      <c r="K28" s="5">
+        <v>15.8</v>
+      </c>
+      <c r="L28" s="5">
+        <v>15</v>
+      </c>
+      <c r="M28" s="6">
+        <f t="shared" si="0"/>
+        <v>16.2</v>
+      </c>
+      <c r="N28" s="16">
+        <v>5.14</v>
+      </c>
+      <c r="O28">
+        <v>24</v>
+      </c>
+      <c r="P28" s="27">
+        <v>4</v>
+      </c>
+      <c r="Q28" s="27">
+        <v>2</v>
+      </c>
+      <c r="R28" s="27">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>6</v>
+      </c>
+      <c r="T28" s="27">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>45176</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29">
+        <v>13</v>
+      </c>
+      <c r="D29" s="2">
+        <v>16</v>
+      </c>
+      <c r="E29" s="2">
+        <v>15.6</v>
+      </c>
+      <c r="F29" s="2">
+        <v>15.7</v>
+      </c>
+      <c r="G29" s="2">
+        <v>16</v>
+      </c>
+      <c r="H29" s="3">
+        <f t="shared" si="1"/>
+        <v>15.824999999999999</v>
+      </c>
+      <c r="I29" s="5">
+        <v>17.5</v>
+      </c>
+      <c r="J29" s="5">
+        <v>18.7</v>
+      </c>
+      <c r="K29" s="5">
+        <v>14.8</v>
+      </c>
+      <c r="L29" s="5">
+        <v>21.4</v>
+      </c>
+      <c r="M29" s="6">
+        <f t="shared" si="0"/>
+        <v>18.100000000000001</v>
+      </c>
+      <c r="N29" s="16">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="O29">
+        <v>14</v>
+      </c>
+      <c r="P29" s="27">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="27">
+        <v>1</v>
+      </c>
+      <c r="R29" s="27">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>7</v>
+      </c>
+      <c r="T29" s="27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>45176</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30">
+        <v>14</v>
+      </c>
+      <c r="D30" s="2">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E30" s="2">
+        <v>16.3</v>
+      </c>
+      <c r="F30" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="G30" s="2">
+        <v>16.2</v>
+      </c>
+      <c r="H30" s="3">
+        <f t="shared" si="1"/>
+        <v>16.350000000000001</v>
+      </c>
+      <c r="I30" s="5">
+        <v>18.8</v>
+      </c>
+      <c r="J30" s="5">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="K30" s="5">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="L30" s="5">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="M30" s="6">
+        <f t="shared" si="0"/>
+        <v>18.675000000000001</v>
+      </c>
+      <c r="N30" s="16">
+        <v>4.97</v>
+      </c>
+      <c r="O30">
+        <v>10</v>
+      </c>
+      <c r="P30" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="27">
+        <v>0</v>
+      </c>
+      <c r="R30" s="27">
+        <v>2</v>
+      </c>
+      <c r="S30">
+        <v>2</v>
+      </c>
+      <c r="T30" s="27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>45176</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31">
+        <v>15</v>
+      </c>
+      <c r="D31" s="2">
+        <v>16</v>
+      </c>
+      <c r="E31" s="2">
+        <v>15.9</v>
+      </c>
+      <c r="F31" s="2">
+        <v>15.7</v>
+      </c>
+      <c r="G31" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="H31" s="3">
+        <f t="shared" si="1"/>
+        <v>15.774999999999999</v>
+      </c>
+      <c r="I31" s="5">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="J31" s="5">
+        <v>13.2</v>
+      </c>
+      <c r="K31" s="5">
+        <v>14.3</v>
+      </c>
+      <c r="L31" s="5">
+        <v>12</v>
+      </c>
+      <c r="M31" s="6">
+        <f t="shared" si="0"/>
+        <v>14.275</v>
+      </c>
+      <c r="N31" s="16">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="O31">
+        <v>10</v>
+      </c>
+      <c r="P31" s="27">
+        <v>6</v>
+      </c>
+      <c r="Q31" s="27">
+        <v>1</v>
+      </c>
+      <c r="R31" s="27">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>8</v>
+      </c>
+      <c r="T31" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A32" s="20">
+        <v>45173</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="17">
+        <v>1</v>
+      </c>
+      <c r="D32" s="17">
+        <v>12</v>
+      </c>
+      <c r="E32" s="17">
+        <v>11.7</v>
+      </c>
+      <c r="F32" s="17">
+        <v>11.7</v>
+      </c>
+      <c r="G32" s="17">
+        <v>12.6</v>
+      </c>
+      <c r="H32" s="18">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I32" s="17">
+        <v>14.4</v>
+      </c>
+      <c r="J32" s="17">
+        <v>23.9</v>
+      </c>
+      <c r="K32" s="17">
+        <v>14.8</v>
+      </c>
+      <c r="L32" s="17">
+        <v>32.6</v>
+      </c>
+      <c r="M32" s="18">
+        <f t="shared" si="0"/>
+        <v>21.424999999999997</v>
+      </c>
+      <c r="N32" s="17">
+        <v>2.98</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="19">
+        <v>0</v>
+      </c>
+      <c r="R32" s="19">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A33" s="20">
+        <v>45173</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="17">
+        <v>2</v>
+      </c>
+      <c r="D33" s="17">
+        <v>12.6</v>
+      </c>
+      <c r="E33" s="17">
+        <v>14.1</v>
+      </c>
+      <c r="F33" s="17">
+        <v>13.5</v>
+      </c>
+      <c r="G33" s="17">
+        <v>12.6</v>
+      </c>
+      <c r="H33" s="18">
+        <f t="shared" si="1"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="I33" s="17">
+        <v>15.6</v>
+      </c>
+      <c r="J33" s="17">
+        <v>21.2</v>
+      </c>
+      <c r="K33" s="17">
+        <v>15.2</v>
+      </c>
+      <c r="L33" s="17">
+        <v>21.4</v>
+      </c>
+      <c r="M33" s="18">
+        <f t="shared" si="0"/>
+        <v>18.350000000000001</v>
+      </c>
+      <c r="N33" s="17">
+        <v>3.44</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="19">
+        <v>0</v>
+      </c>
+      <c r="R33" s="19">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A34" s="20">
+        <v>45173</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="17">
+        <v>3</v>
+      </c>
+      <c r="D34" s="17">
+        <v>11.6</v>
+      </c>
+      <c r="E34" s="17">
+        <v>11.1</v>
+      </c>
+      <c r="F34" s="17">
+        <v>11.9</v>
+      </c>
+      <c r="G34" s="17">
+        <v>10.9</v>
+      </c>
+      <c r="H34" s="18">
+        <f t="shared" si="1"/>
+        <v>11.375</v>
+      </c>
+      <c r="I34" s="17">
+        <v>31.3</v>
+      </c>
+      <c r="J34" s="21">
+        <v>0</v>
+      </c>
+      <c r="K34" s="21">
+        <v>0</v>
+      </c>
+      <c r="L34" s="21">
+        <v>0</v>
+      </c>
+      <c r="M34" s="25">
+        <f t="shared" si="0"/>
+        <v>7.8250000000000002</v>
+      </c>
+      <c r="N34" s="17">
+        <v>3</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="19">
+        <v>0</v>
+      </c>
+      <c r="R34" s="19">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34" s="19">
+        <v>0</v>
+      </c>
+      <c r="U34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A35" s="20">
+        <v>45173</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="17">
+        <v>4</v>
+      </c>
+      <c r="D35" s="17">
+        <v>10.9</v>
+      </c>
+      <c r="E35" s="17">
+        <v>10.7</v>
+      </c>
+      <c r="F35" s="17">
+        <v>11.1</v>
+      </c>
+      <c r="G35" s="17">
+        <v>10.9</v>
+      </c>
+      <c r="H35" s="18">
+        <f t="shared" si="1"/>
+        <v>10.9</v>
+      </c>
+      <c r="I35" s="17">
+        <v>23.3</v>
+      </c>
+      <c r="J35" s="17">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="K35" s="17">
+        <v>21.9</v>
+      </c>
+      <c r="L35" s="17">
+        <v>31.4</v>
+      </c>
+      <c r="M35" s="18">
+        <f t="shared" si="0"/>
+        <v>28.6</v>
+      </c>
+      <c r="N35" s="17">
+        <v>2.97</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="19">
+        <v>0</v>
+      </c>
+      <c r="R35" s="19">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A36" s="20">
+        <v>45173</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="17">
+        <v>5</v>
+      </c>
+      <c r="D36" s="17">
+        <v>12</v>
+      </c>
+      <c r="E36" s="17">
+        <v>11.9</v>
+      </c>
+      <c r="F36" s="17">
+        <v>12.8</v>
+      </c>
+      <c r="G36" s="17">
+        <v>11.9</v>
+      </c>
+      <c r="H36" s="18">
+        <f t="shared" si="1"/>
+        <v>12.15</v>
+      </c>
+      <c r="I36" s="17">
+        <v>24</v>
+      </c>
+      <c r="J36" s="17">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="K36" s="17">
+        <v>31.8</v>
+      </c>
+      <c r="L36" s="17">
+        <v>21.8</v>
+      </c>
+      <c r="M36" s="18">
+        <f t="shared" si="0"/>
+        <v>27.45</v>
+      </c>
+      <c r="N36" s="17">
+        <v>2.98</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="19">
+        <v>0</v>
+      </c>
+      <c r="R36" s="19">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A37" s="20">
+        <v>45173</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="17">
+        <v>6</v>
+      </c>
+      <c r="D37" s="17">
+        <v>12</v>
+      </c>
+      <c r="E37" s="17">
+        <v>12</v>
+      </c>
+      <c r="F37" s="17">
+        <v>12.3</v>
+      </c>
+      <c r="G37" s="17">
+        <v>11.8</v>
+      </c>
+      <c r="H37" s="18">
+        <f t="shared" si="1"/>
+        <v>12.024999999999999</v>
+      </c>
+      <c r="I37" s="17">
+        <v>16.5</v>
+      </c>
+      <c r="J37" s="17">
+        <v>26.8</v>
+      </c>
+      <c r="K37" s="17">
+        <v>22.2</v>
+      </c>
+      <c r="L37" s="17">
+        <v>12</v>
+      </c>
+      <c r="M37" s="18">
+        <f t="shared" si="0"/>
+        <v>19.375</v>
+      </c>
+      <c r="N37" s="17">
+        <v>3.11</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="19">
+        <v>0</v>
+      </c>
+      <c r="R37" s="19">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="24"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E060D49-6B3C-4C0F-B018-9CA4EE0AFE4B}">
   <dimension ref="A1:T5"/>
   <sheetViews>
@@ -5399,7 +7811,7 @@
         <v>45175</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1">
         <v>16</v>
@@ -5440,18 +7852,18 @@
         <v>5.51</v>
       </c>
       <c r="O1" s="23"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45175</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>17</v>
@@ -5492,18 +7904,18 @@
         <v>5.47</v>
       </c>
       <c r="O2" s="23"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45175</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>18</v>
@@ -5544,18 +7956,18 @@
         <v>5.04</v>
       </c>
       <c r="O3" s="23"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45175</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>19</v>
@@ -5596,18 +8008,18 @@
         <v>5.04</v>
       </c>
       <c r="O4" s="23"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45175</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -5648,90 +8060,90 @@
         <v>5.09</v>
       </c>
       <c r="O5" s="23"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51795CA0-24EE-4D40-9BA3-E3191A30D0B8}">
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AA24" sqref="AA24"/>
+    <sheetView topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:U38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>40</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>41</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>42</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>44</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>45</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>46</v>
       </c>
-      <c r="T1" t="s">
-        <v>47</v>
-      </c>
       <c r="U1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
@@ -5739,7 +8151,7 @@
         <v>45175</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -5801,7 +8213,7 @@
         <v>45175</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -5863,7 +8275,7 @@
         <v>45175</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -5925,7 +8337,7 @@
         <v>45175</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -5987,7 +8399,7 @@
         <v>45175</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -6049,7 +8461,7 @@
         <v>45175</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -6111,7 +8523,7 @@
         <v>45175</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -6173,7 +8585,7 @@
         <v>45175</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -6235,7 +8647,7 @@
         <v>45175</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -6297,7 +8709,7 @@
         <v>45175</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -6359,7 +8771,7 @@
         <v>45175</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -6421,7 +8833,7 @@
         <v>45175</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -6478,7 +8890,7 @@
         <v>12</v>
       </c>
       <c r="U13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
@@ -6486,7 +8898,7 @@
         <v>45175</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -6548,7 +8960,7 @@
         <v>45175</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -6610,7 +9022,7 @@
         <v>45175</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -6672,7 +9084,7 @@
         <v>45176</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -6734,7 +9146,7 @@
         <v>45176</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -6796,7 +9208,7 @@
         <v>45176</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -6858,7 +9270,7 @@
         <v>45176</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -6920,7 +9332,7 @@
         <v>45176</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -6982,7 +9394,7 @@
         <v>45176</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -7044,7 +9456,7 @@
         <v>45176</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -7101,7 +9513,7 @@
         <v>11</v>
       </c>
       <c r="U23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.35">
@@ -7109,7 +9521,7 @@
         <v>45176</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24">
         <v>8</v>
@@ -7171,7 +9583,7 @@
         <v>45176</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25">
         <v>9</v>
@@ -7233,7 +9645,7 @@
         <v>45176</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26">
         <v>10</v>
@@ -7295,7 +9707,7 @@
         <v>45176</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27">
         <v>11</v>
@@ -7357,7 +9769,7 @@
         <v>45176</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28">
         <v>12</v>
@@ -7419,7 +9831,7 @@
         <v>45176</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29">
         <v>13</v>
@@ -7481,7 +9893,7 @@
         <v>45176</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30">
         <v>14</v>
@@ -7543,7 +9955,7 @@
         <v>45176</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31">
         <v>15</v>
@@ -7605,7 +10017,7 @@
         <v>45173</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -7667,7 +10079,7 @@
         <v>45173</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -7729,7 +10141,7 @@
         <v>45173</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -7786,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.35">
@@ -7794,7 +10206,7 @@
         <v>45173</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -7856,7 +10268,7 @@
         <v>45173</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -7918,7 +10330,7 @@
         <v>45173</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37">
         <v>6</v>
